--- a/Requerimentos.xlsx
+++ b/Requerimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\DATAB - Desafio Copa do Mundo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9625DF-89D4-4A03-A5E0-D8BA93596FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65680D3D-0E9A-4F8C-B55B-5CE57DA3EE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7FB0CEB-3A98-4155-AB22-3E6B4967F01E}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7FB0CEB-3A98-4155-AB22-3E6B4967F01E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>X</t>
   </si>
@@ -95,10 +95,7 @@
     <t>Existe alguma tendência de aumento ou diminuição da quantidade de times participantes?</t>
   </si>
   <si>
-    <t>FatoParticipacao</t>
-  </si>
-  <si>
-    <t>FatoCopasRealizadas</t>
+    <t>FatoParticipacoes</t>
   </si>
 </sst>
 </file>
@@ -680,7 +677,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +891,7 @@
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>

--- a/Requerimentos.xlsx
+++ b/Requerimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\DATAB - Desafio Copa do Mundo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65680D3D-0E9A-4F8C-B55B-5CE57DA3EE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E72152-5AC0-489A-8675-298599AC4E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7FB0CEB-3A98-4155-AB22-3E6B4967F01E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>X</t>
   </si>
@@ -47,15 +47,9 @@
     <t>Data Warehouse Bus Matrix</t>
   </si>
   <si>
-    <t>Público ao longo tempo</t>
-  </si>
-  <si>
     <t>DimCalendario</t>
   </si>
   <si>
-    <t>Maior público registrado</t>
-  </si>
-  <si>
     <t>FatoPartidas</t>
   </si>
   <si>
@@ -74,12 +68,6 @@
     <t>Ranking dos países campeões</t>
   </si>
   <si>
-    <t>Quais times mais ganharam e perderam partidas?</t>
-  </si>
-  <si>
-    <t>Quais jogadores fizeram mais gols?</t>
-  </si>
-  <si>
     <t>Quais jogadores participaram de mais copas? Quais fizeram mais gols?</t>
   </si>
   <si>
@@ -89,13 +77,22 @@
     <t>Quais estádios são "pé quente" e registraram mais gols do Brasil?</t>
   </si>
   <si>
-    <t>Quais partidas entre os mesmos países mais se repetiram?</t>
-  </si>
-  <si>
     <t>Existe alguma tendência de aumento ou diminuição da quantidade de times participantes?</t>
   </si>
   <si>
     <t>FatoParticipacoes</t>
+  </si>
+  <si>
+    <t>Como o comparecimento do público evoluiu ao longo do tempo?</t>
+  </si>
+  <si>
+    <t>Qual foi o público record (maior audiência registrada)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais times mais ganharam e perderam partidas? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais partidas entre os mesmos países mais se repetiram? </t>
   </si>
 </sst>
 </file>
@@ -135,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -300,18 +303,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,9 +321,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -359,6 +353,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0ABF7A-70B4-4123-BB3F-D7A02CE0E74C}">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,223 +699,209 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:10" s="2" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="20"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
